--- a/Fixturing/Part List/Fixturing Part List.xlsx
+++ b/Fixturing/Part List/Fixturing Part List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan Koch\Documents\GitHub\OpenDMS\Fixturing\Part List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F636D4ED-9784-4894-BA74-413778D635F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A780E5-0150-4352-9415-4A4F9FAA4976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4363" yWindow="5520" windowWidth="15548" windowHeight="9986" xr2:uid="{5CC7A2D2-AE76-44BB-B4F8-76E2AD06EA05}"/>
+    <workbookView xWindow="14726" yWindow="0" windowWidth="14983" windowHeight="17880" xr2:uid="{5CC7A2D2-AE76-44BB-B4F8-76E2AD06EA05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,168 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>SUPPLIER</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>Cost Each</t>
+  </si>
+  <si>
+    <t>Cost Total</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>12" by 24 "</t>
+  </si>
+  <si>
+    <t>Viton® Fluoroelastomer Rubber Sheet</t>
+  </si>
+  <si>
+    <t>Viton® Sheet</t>
+  </si>
+  <si>
+    <t>McMaster-Carr</t>
+  </si>
+  <si>
+    <t>86075K51</t>
+  </si>
+  <si>
+    <t>92095A183</t>
+  </si>
+  <si>
+    <t>Pack of 100</t>
+  </si>
+  <si>
+    <t>18-8 Stainless Steel, M3 x 0.50 mm Thread, 12mm Long</t>
+  </si>
+  <si>
+    <t>Button Head Hex Drive Screw (6 needed)</t>
+  </si>
+  <si>
+    <t>98381A220</t>
+  </si>
+  <si>
+    <t>Alloy Steel, 1/8" Diameter, 9/16" Long</t>
+  </si>
+  <si>
+    <t>Dowel Pin (4 needed)</t>
+  </si>
+  <si>
+    <t>DMS Fixturing Stack Rev 1.0, March 18, 2023</t>
+  </si>
+  <si>
+    <t>Beswick Engineering</t>
+  </si>
+  <si>
+    <t>MCB-1018-1-316-VIX</t>
+  </si>
+  <si>
+    <t>10-32 Thread to 1/8 Inch O.D. Tubing, Straight Compression</t>
+  </si>
+  <si>
+    <t>Pack of 1</t>
+  </si>
+  <si>
+    <t>Sealing Fitting</t>
+  </si>
+  <si>
+    <t>10-32 O-ring seal to 1/16" Valco ZDV</t>
+  </si>
+  <si>
+    <t>Outlet Fitting (Not necessary)</t>
+  </si>
+  <si>
+    <t>ZAOR11
+https://www.vici.com/vfit/zaor.php</t>
+  </si>
+  <si>
+    <t>Valco</t>
+  </si>
+  <si>
+    <t>Pack of 50</t>
+  </si>
+  <si>
+    <t>Chemical-Resistant Viton® Fluoroelastomer O-Ring (4 Needed)</t>
+  </si>
+  <si>
+    <t>8780N145</t>
+  </si>
+  <si>
+    <t>1" x 24", 1/16" Thick, Gray</t>
+  </si>
+  <si>
+    <t>High-Strength High-Temperature Silicone Strip (Cut to Size)</t>
+  </si>
+  <si>
+    <t>1295N113</t>
+  </si>
+  <si>
+    <t>Chemical-Resistant Viton® Fluoroelastomer O-Ring (1 Needed)</t>
+  </si>
+  <si>
+    <t>Super-Resilient, 1 mm Wide, 2.5 mm ID</t>
+  </si>
+  <si>
+    <t>1295N115</t>
+  </si>
+  <si>
+    <t>Super-Resilient, 1 mm Wide, 3.5 mm ID</t>
+  </si>
+  <si>
+    <t>Package of 1</t>
+  </si>
+  <si>
+    <t>Custom Laser Cut Part</t>
+  </si>
+  <si>
+    <t>3D Model "X"</t>
+  </si>
+  <si>
+    <t>Laser Cut Gasket</t>
+  </si>
+  <si>
+    <t>Aluminum 6061-T651/T6</t>
+  </si>
+  <si>
+    <t>Custom Machined Part</t>
+  </si>
+  <si>
+    <t>Bottom Plate</t>
+  </si>
+  <si>
+    <t>Top Plate</t>
+  </si>
+  <si>
+    <t>Custom Laser Cut Viton®  Gasket (1 Needed)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +204,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -62,12 +255,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +648,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1A8B85-CAEA-4888-AB30-61035F3A79BF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.4609375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="31.75" x14ac:dyDescent="0.85">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="7">
+        <v>88.25</v>
+      </c>
+      <c r="H3" s="7">
+        <f>G3*A3</f>
+        <v>88.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.9" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7">
+        <v>6.77</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:H5" si="0">G4*A4</f>
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>17.420000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7">
+        <v>33.85</v>
+      </c>
+      <c r="H6" s="7">
+        <f>G6*A6</f>
+        <v>33.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="7">
+        <v>6.33</v>
+      </c>
+      <c r="H8" s="7">
+        <f>A8*G8</f>
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="7">
+        <v>5.98</v>
+      </c>
+      <c r="H9" s="7">
+        <f>G9*A9</f>
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="7">
+        <v>6.09</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" ref="H10" si="1">G10*A10</f>
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Fixturing/Part List/Fixturing Part List.xlsx
+++ b/Fixturing/Part List/Fixturing Part List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan Koch\Documents\GitHub\OpenDMS\Fixturing\Part List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A780E5-0150-4352-9415-4A4F9FAA4976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A486176E-CC10-42A7-A8CE-082CCAE88412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14726" yWindow="0" windowWidth="14983" windowHeight="17880" xr2:uid="{5CC7A2D2-AE76-44BB-B4F8-76E2AD06EA05}"/>
   </bookViews>
@@ -147,18 +147,12 @@
     <t>High-Strength High-Temperature Silicone Strip (Cut to Size)</t>
   </si>
   <si>
-    <t>1295N113</t>
-  </si>
-  <si>
     <t>Chemical-Resistant Viton® Fluoroelastomer O-Ring (1 Needed)</t>
   </si>
   <si>
     <t>Super-Resilient, 1 mm Wide, 2.5 mm ID</t>
   </si>
   <si>
-    <t>1295N115</t>
-  </si>
-  <si>
     <t>Super-Resilient, 1 mm Wide, 3.5 mm ID</t>
   </si>
   <si>
@@ -187,6 +181,12 @@
   </si>
   <si>
     <t>Custom Laser Cut Viton®  Gasket (1 Needed)</t>
+  </si>
+  <si>
+    <t>9262K511</t>
+  </si>
+  <si>
+    <t>9262K626</t>
   </si>
 </sst>
 </file>
@@ -247,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -283,11 +283,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -308,11 +323,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1A8B85-CAEA-4888-AB30-61035F3A79BF}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -666,16 +684,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.75" x14ac:dyDescent="0.85">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -845,7 +863,7 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
@@ -854,14 +872,14 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7">
-        <v>6.33</v>
+        <v>6</v>
       </c>
       <c r="H8" s="7">
         <f>A8*G8</f>
-        <v>6.33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -872,23 +890,23 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
-        <v>36</v>
+      <c r="F9" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="G9" s="7">
-        <v>5.98</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="H9" s="7">
         <f>G9*A9</f>
-        <v>5.98</v>
+        <v>8.1300000000000008</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -923,24 +941,24 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -949,24 +967,24 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -975,24 +993,24 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>8</v>
       </c>
     </row>
